--- a/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T19:58:30+00:00</t>
+    <t>2022-03-22T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:04:56+00:00</t>
+    <t>2022-03-22T20:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:08:10+00:00</t>
+    <t>2022-03-22T21:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T21:10:15+00:00</t>
+    <t>2022-03-23T17:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T17:44:48+00:00</t>
+    <t>2022-03-23T20:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:45:19+00:00</t>
+    <t>2022-03-23T20:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-sample-origin-covid-19.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from DDCC Codes for I" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:58:03+00:00</t>
+    <t>2023-10-22T07:22:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -99,67 +99,43 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>258500001</t>
+    <t>JAM.AH.XF</t>
   </si>
   <si>
     <t>Nasopharyngeal swab</t>
   </si>
   <si>
-    <t>461911000124106</t>
+    <t>KAR.AH.XF</t>
   </si>
   <si>
     <t>Oropharyngeal swab</t>
   </si>
   <si>
-    <t>472881004</t>
-  </si>
-  <si>
-    <t>Pharyngeal swab</t>
-  </si>
-  <si>
-    <t>472901003</t>
+    <t>JAE.AH.XF</t>
   </si>
   <si>
     <t>Swab from nasal sinus</t>
   </si>
   <si>
-    <t>119342007</t>
+    <t>KAZ.AH.XD</t>
   </si>
   <si>
     <t>Saliva specimen</t>
   </si>
   <si>
-    <t>119297000</t>
+    <t>DIA.AH.XA</t>
   </si>
   <si>
     <t>Blood specimen</t>
   </si>
   <si>
-    <t>119361006</t>
-  </si>
-  <si>
-    <t>Plasma specimen</t>
-  </si>
-  <si>
-    <t>119364003</t>
-  </si>
-  <si>
-    <t>Serum specimen</t>
-  </si>
-  <si>
-    <t>122592007</t>
-  </si>
-  <si>
-    <t>Acellular blood (serum or plasma) specimen</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://id.who.int/icd11/mms</t>
   </si>
 </sst>
 </file>
@@ -281,10 +257,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -424,7 +400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,47 +463,15 @@
         <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
